--- a/TestEquations.xlsx
+++ b/TestEquations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcat\Desktop\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609FC2C4-2F34-47D9-BF31-D2718E3FE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50982F-2675-4A0D-847C-D01ABF3EAAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Как составлять тесты для ур-ий</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>1. Заходим на сайт Desmos</t>
   </si>
@@ -116,6 +113,30 @@
   </si>
   <si>
     <t>f=1.3</t>
+  </si>
+  <si>
+    <t>Как составлять тесты для ур-ий через Desmos (НЕТ КОМЛЕКСНЫХ ЧИСЕЛ)</t>
+  </si>
+  <si>
+    <t>Как составлять тесты ур-ий через WolframAlpha</t>
+  </si>
+  <si>
+    <t>1.Заходи на сайт WolframAlpha</t>
+  </si>
+  <si>
+    <t>2.Придумываем ур-е</t>
+  </si>
+  <si>
+    <t>3.Переходим на лист "Тесты"</t>
+  </si>
+  <si>
+    <t>4. Оформляем как в примере</t>
+  </si>
+  <si>
+    <t>Тест5</t>
+  </si>
+  <si>
+    <t>(1.2+4.3i)^(0.2-3.2i)</t>
   </si>
 </sst>
 </file>
@@ -232,24 +253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -264,6 +273,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -286,16 +313,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4823669</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6432</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573247</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457763</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27963</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4145559</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,8 +345,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8472880" y="6432"/>
-          <a:ext cx="5931580" cy="3726669"/>
+          <a:off x="2397853" y="1349229"/>
+          <a:ext cx="5396917" cy="2684477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279632</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20971</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09474FB1-D557-40A9-B3F4-4952F7F73A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8752513" y="1230384"/>
+          <a:ext cx="5145247" cy="2292991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,6 +668,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575295</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>73550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5A57A3-B1ED-4143-9739-DB4FEBF153D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12260581" y="6797040"/>
+          <a:ext cx="2145014" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -863,88 +978,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:G6"/>
+  <dimension ref="D1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="70.33203125" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D3" s="8" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="8" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="22" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2:G2" r:id="rId1" display="1. Заходим на сайт Desmos" xr:uid="{DF00EF5B-0400-4400-8335-213F660F11DC}"/>
+    <hyperlink ref="I2:L2" r:id="rId2" display="1.Заходи на сайт WolframAlpha" xr:uid="{E9ED46DF-AB4F-4312-8F41-1B52B4479501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBEF8F5-7674-488C-ADB2-60E0A43337B0}">
-  <dimension ref="C1:L26"/>
+  <dimension ref="C1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,54 +1138,54 @@
     <row r="2" spans="3:12" ht="25.8" customHeight="1" x14ac:dyDescent="1.05">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="3:12" ht="14.4" customHeight="1" x14ac:dyDescent="1.05">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1020,11 +1197,11 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="12" t="s">
-        <v>12</v>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1036,11 +1213,11 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1050,71 +1227,81 @@
     </row>
     <row r="8" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
       <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G9" s="14" t="s">
+    </row>
+    <row r="13" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="E10" s="9" t="s">
+    <row r="14" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G24" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G13" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G14" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G15" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G18" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G19" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G24" s="16" t="s">
+    <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G25" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G25" s="14" t="s">
+    <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G26" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G26" s="14" t="s">
+      <c r="K26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>29</v>
+    </row>
+    <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G30" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G31" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
